--- a/backend/django_Admin3/administrate/src/EventSessionImportTemplate2025Stest.xlsx
+++ b/backend/django_Admin3/administrate/src/EventSessionImportTemplate2025Stest.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bppserviceslimited-my.sharepoint.com/personal/eugenelo_bpp_com/Documents/Documents/Code/Admin3/backend/django_Admin3/administrate/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{B34DF247-86E7-4FF5-BE27-EEC976CFC219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F8F11AC-589C-4319-A408-97FB0330FA4C}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{B34DF247-86E7-4FF5-BE27-EEC976CFC219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{076D8873-7910-4C9A-9088-D485B6C5A5F6}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Import!$A$1:$Z$36</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1422,10 +1425,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA946"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="F28" sqref="A1:Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1539,7 +1543,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1585,7 +1589,7 @@
       </c>
       <c r="Y2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1649,7 +1653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1726,7 +1730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1803,7 +1807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1880,7 +1884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1957,7 +1961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -2034,7 +2038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -2111,7 +2115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2188,7 +2192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -2265,7 +2269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -2342,7 +2346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -2419,7 +2423,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2496,7 +2500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2650,7 +2654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -2727,7 +2731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2881,7 +2885,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -2958,7 +2962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -3112,7 +3116,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3189,7 +3193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -3343,7 +3347,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -3420,7 +3424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3574,7 +3578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -3651,7 +3655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -3728,7 +3732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -3805,7 +3809,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -3882,7 +3886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
@@ -3959,7 +3963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
@@ -4036,7 +4040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -4113,7 +4117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
@@ -15111,20 +15115,25 @@
       <c r="W946" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z36" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="To be confirmed"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="724395a5-9866-4f6b-88f5-95467eafe09f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3023e72d-cc0b-4bf4-8afb-4bcccaca7ae4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15383,27 +15392,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="724395a5-9866-4f6b-88f5-95467eafe09f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3023e72d-cc0b-4bf4-8afb-4bcccaca7ae4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89499641-2774-49E3-A198-B7607196CF89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B010B83-E9F6-44B5-B728-7C87B98D1853}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3023e72d-cc0b-4bf4-8afb-4bcccaca7ae4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="724395a5-9866-4f6b-88f5-95467eafe09f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15428,9 +15430,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B010B83-E9F6-44B5-B728-7C87B98D1853}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89499641-2774-49E3-A198-B7607196CF89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3023e72d-cc0b-4bf4-8afb-4bcccaca7ae4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="724395a5-9866-4f6b-88f5-95467eafe09f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/backend/django_Admin3/administrate/src/EventSessionImportTemplate2025Stest.xlsx
+++ b/backend/django_Admin3/administrate/src/EventSessionImportTemplate2025Stest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bppserviceslimited-my.sharepoint.com/personal/eugenelo_bpp_com/Documents/Documents/Code/Admin3/backend/django_Admin3/administrate/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{B34DF247-86E7-4FF5-BE27-EEC976CFC219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{076D8873-7910-4C9A-9088-D485B6C5A5F6}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{B34DF247-86E7-4FF5-BE27-EEC976CFC219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E071FC02-8995-444E-A9A1-793D3AB904BF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,28 +161,7 @@
     <t>https://bpp.adobeconnect.com/cb1hme/</t>
   </si>
   <si>
-    <t>CB1-01-25S</t>
-  </si>
-  <si>
-    <t>CB1-01-25S-1</t>
-  </si>
-  <si>
     <t>2025S</t>
-  </si>
-  <si>
-    <t>CB1-01-25S-2</t>
-  </si>
-  <si>
-    <t>CB1-01-25S-3</t>
-  </si>
-  <si>
-    <t>CB1-01-25S-4</t>
-  </si>
-  <si>
-    <t>CB1-01-25S-5</t>
-  </si>
-  <si>
-    <t>CB1-01-25S-6</t>
   </si>
   <si>
     <t>CB1-10-25S</t>
@@ -363,6 +342,27 @@
   </si>
   <si>
     <t>Day</t>
+  </si>
+  <si>
+    <t>ELO-CB1-01-25S</t>
+  </si>
+  <si>
+    <t>ELO-CB1-01-25S-1</t>
+  </si>
+  <si>
+    <t>ELO-CB1-01-25S-2</t>
+  </si>
+  <si>
+    <t>ELO-CB1-01-25S-3</t>
+  </si>
+  <si>
+    <t>ELO-CB1-01-25S-4</t>
+  </si>
+  <si>
+    <t>ELO-CB1-01-25S-5</t>
+  </si>
+  <si>
+    <t>ELO-CB1-01-25S-6</t>
   </si>
 </sst>
 </file>
@@ -1425,11 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA946"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="A1:Z36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1465,85 +1464,85 @@
   <sheetData>
     <row r="1" spans="1:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="Q1" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="S1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="T1" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Z1" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1589,7 +1588,7 @@
       </c>
       <c r="Y2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1653,15 +1652,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -1727,10 +1726,10 @@
         <v>23</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1738,7 +1737,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -1807,7 +1806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1815,7 +1814,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -1884,7 +1883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1892,7 +1891,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
@@ -1961,7 +1960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1969,7 +1968,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
@@ -2038,7 +2037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -2046,7 +2045,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
@@ -2115,15 +2114,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>17</v>
@@ -2189,10 +2188,10 @@
         <v>23</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -2200,7 +2199,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
@@ -2269,7 +2268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -2277,7 +2276,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
@@ -2346,15 +2345,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
@@ -2420,10 +2419,10 @@
         <v>23</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2431,7 +2430,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>17</v>
@@ -2500,7 +2499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
@@ -2582,10 +2581,10 @@
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>17</v>
@@ -2651,10 +2650,10 @@
         <v>23</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -2662,7 +2661,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>17</v>
@@ -2731,7 +2730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2739,7 +2738,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>17</v>
@@ -2813,10 +2812,10 @@
         <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>17</v>
@@ -2882,10 +2881,10 @@
         <v>23</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -2893,7 +2892,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>17</v>
@@ -2962,7 +2961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -2970,7 +2969,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>17</v>
@@ -3044,10 +3043,10 @@
         <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>17</v>
@@ -3113,10 +3112,10 @@
         <v>23</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3124,7 +3123,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>17</v>
@@ -3193,7 +3192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -3201,7 +3200,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>17</v>
@@ -3275,10 +3274,10 @@
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>17</v>
@@ -3344,10 +3343,10 @@
         <v>23</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -3355,7 +3354,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>17</v>
@@ -3424,7 +3423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3432,7 +3431,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>17</v>
@@ -3506,10 +3505,10 @@
         <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>17</v>
@@ -3575,10 +3574,10 @@
         <v>23</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -3586,7 +3585,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>17</v>
@@ -3655,7 +3654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -3663,7 +3662,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>17</v>
@@ -3732,15 +3731,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>17</v>
@@ -3806,10 +3805,10 @@
         <v>23</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -3817,7 +3816,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>17</v>
@@ -3886,7 +3885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
@@ -3894,7 +3893,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>17</v>
@@ -3963,15 +3962,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>17</v>
@@ -4037,10 +4036,10 @@
         <v>23</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -4048,7 +4047,7 @@
         <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>17</v>
@@ -4117,7 +4116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
@@ -4125,7 +4124,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>17</v>
@@ -15115,28 +15114,13 @@
       <c r="W946" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z36" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="To be confirmed"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Z36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EB26AF0C5616E64481759524C737526E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8e0bb0ae4c7bdad02a8b77375b29b237">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3023e72d-cc0b-4bf4-8afb-4bcccaca7ae4" xmlns:ns3="724395a5-9866-4f6b-88f5-95467eafe09f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b15267a74df54c0896e5d63d7c40d4e" ns2:_="" ns3:_="">
     <xsd:import namespace="3023e72d-cc0b-4bf4-8afb-4bcccaca7ae4"/>
@@ -15391,6 +15375,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -15403,14 +15396,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B010B83-E9F6-44B5-B728-7C87B98D1853}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D003BEF3-9898-496B-B57A-C2ACDADF8C14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15425,6 +15410,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B010B83-E9F6-44B5-B728-7C87B98D1853}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
